--- a/Supporting_Documentation/Bill_of_Materials_2_18_22.xlsx
+++ b/Supporting_Documentation/Bill_of_Materials_2_18_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b423f4aa280b212/Documents/Liquid Handler/Bill_of_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rod\Documents\GitHub\Liquid-Handler\Supporting_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{216F578D-34F9-46BB-A9EC-E3377EA8F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83007BD8-7252-4741-8C0E-1B39737C5D56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3D2C4-C383-49BB-A926-47B0C1CFC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2940" windowWidth="34440" windowHeight="15360" xr2:uid="{228C7852-DDEA-4F5C-8C38-1AC1DB1E4029}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{228C7852-DDEA-4F5C-8C38-1AC1DB1E4029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Item</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>M2/3/4 Hardware (Button Head)</t>
+  </si>
+  <si>
+    <t>Alternate Link</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/2251832831935819.html?spm=a2g0o.productlist.0.0.12517c136Se0WT&amp;algo_pvid=aa10e8aa-e5b5-4114-be8b-8d58eaee4e81&amp;algo_exp_id=aa10e8aa-e5b5-4114-be8b-8d58eaee4e81-4&amp;pdp_ext_f=%7B%22sku_id%22%3A%2267236436630%22%7D&amp;pdp_npi=2%40dis%21USD%21%219.99%21%21%21%21%21%402101e9d416557348465081703e35f9%2167236436630%21sea&amp;gatewayAdapt=4itemAdapt</t>
+  </si>
+  <si>
+    <t>The amazon provider often seems to be out of stock.</t>
   </si>
 </sst>
 </file>
@@ -581,26 +590,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6798E51-AFE9-493E-BC9F-90622D642E51}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,10 +638,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -663,7 +675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -693,8 +705,10 @@
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -724,8 +738,10 @@
       <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -755,8 +771,10 @@
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -786,8 +804,10 @@
       <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -817,8 +837,10 @@
       <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -848,8 +870,10 @@
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -879,8 +903,10 @@
       <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -910,8 +936,10 @@
       <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -941,8 +969,10 @@
       <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -972,8 +1002,10 @@
       <c r="I12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1003,8 +1035,10 @@
       <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1034,8 +1068,10 @@
       <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1065,8 +1101,10 @@
       <c r="I15" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1134,10 @@
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,8 +1167,10 @@
       <c r="I17" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1158,8 +1200,10 @@
       <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1189,8 +1233,14 @@
       <c r="I19" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1252,7 @@
         <v>832.35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F26" s="8" t="s">
         <v>44</v>
       </c>
@@ -1231,8 +1281,9 @@
     <hyperlink ref="I12" r:id="rId16" xr:uid="{F798A701-A98F-4B7F-9A7F-C991BD0574B9}"/>
     <hyperlink ref="I13" r:id="rId17" xr:uid="{85CEBBD0-334C-4000-A47F-8BCD4BAB501C}"/>
     <hyperlink ref="I14" r:id="rId18" xr:uid="{F5F2EC1C-7C2B-4A38-8E73-E67846680338}"/>
+    <hyperlink ref="J19" r:id="rId19" display="https://www.aliexpress.com/item/2251832831935819.html?spm=a2g0o.productlist.0.0.12517c136Se0WT&amp;algo_pvid=aa10e8aa-e5b5-4114-be8b-8d58eaee4e81&amp;algo_exp_id=aa10e8aa-e5b5-4114-be8b-8d58eaee4e81-4&amp;pdp_ext_f=%7B%22sku_id%22%3A%2267236436630%22%7D&amp;pdp_npi=2%40dis%21USD%21%219.99%21%21%21%21%21%402101e9d416557348465081703e35f9%2167236436630%21sea&amp;gatewayAdapt=4itemAdapt" xr:uid="{16B695AA-B824-48E0-9F20-E2D46A91598B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>